--- a/biology/Zoologie/Érione_turquoise/Érione_turquoise.xlsx
+++ b/biology/Zoologie/Érione_turquoise/Érione_turquoise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rione_turquoise</t>
+          <t>Érione_turquoise</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriocnemis godini
 L'Érione turquoise, Eriocnemis godini, est une espèce de colibris de la sous-famille des Trochilinae qui est probablement éteinte.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rione_turquoise</t>
+          <t>Érione_turquoise</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Érione turquoise est mentionnée seulement dans une zone restreinte au nord de l'Équateur et peut-être au sud de la Colombie.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rione_turquoise</t>
+          <t>Érione_turquoise</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Érione turquoise mesure entre 10 et 11 centimètres.  Les deux sexes ont les couvertures alaires et la queue bleu violet, le bec noir droit. Le plumage du mâle est principalement vert, avec la gorge de couleur turquoise.  La tête, couverte de plumes squamiformes vertes paraissant bordées de brun, est marquée d’une tache postoculaire blanche. Le haut du dos est vert bronzé et les parties inférieures vert doré chatoyant chez le mâle. La femelle n’a pas de tache sur la gorge, son plumage est plus terne et le ventre plus doré.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89rione_turquoise</t>
+          <t>Érione_turquoise</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Statut et protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le type d’habitat dont disposait ce colibri sur les bords du rio Guayllabamba a quasiment disparu, ce qui ne peut que contribuer à sa disparition. Sans nouvelles de cette espèce depuis plus de 150 ans, il serait normal de la considérer comme éteinte. Seul le témoignage douteux d’une observation en 1976 permet à l’IUCN de classer l’espèce dans la catégorie CR (en grand péril d’extinction) plutôt que comme éteinte (EX).
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89rione_turquoise</t>
+          <t>Érione_turquoise</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Origine du nom scientifique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fut nommée « godini » par l’ornithologue Jules Bourcier en l’honneur de l‘astronome Louis Godin qui participa en 1736 à la première mission géodésique française en Équateur.
 </t>
